--- a/data/pca/factorExposure/factorExposure_2017-02-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01322943403244215</v>
+        <v>0.01147286816356475</v>
       </c>
       <c r="C2">
-        <v>-0.01964272363298019</v>
+        <v>-0.04191352566088541</v>
       </c>
       <c r="D2">
-        <v>0.02034232959752064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03047668310857446</v>
+      </c>
+      <c r="E2">
+        <v>0.04534269180534512</v>
+      </c>
+      <c r="F2">
+        <v>0.006059826063879688</v>
+      </c>
+      <c r="G2">
+        <v>0.1115395332917911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02924139694176224</v>
+        <v>0.03898487682257462</v>
       </c>
       <c r="C3">
-        <v>0.003859315695760331</v>
+        <v>-0.1008887768543613</v>
       </c>
       <c r="D3">
-        <v>0.09570777988115066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01756909800084708</v>
+      </c>
+      <c r="E3">
+        <v>0.0993991916044258</v>
+      </c>
+      <c r="F3">
+        <v>0.0145226917096416</v>
+      </c>
+      <c r="G3">
+        <v>0.1339968594943727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03094226087380017</v>
+        <v>0.05497617892928575</v>
       </c>
       <c r="C4">
-        <v>-0.009477004678853046</v>
+        <v>-0.0673835833847886</v>
       </c>
       <c r="D4">
-        <v>0.07962115582891688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02522610669597503</v>
+      </c>
+      <c r="E4">
+        <v>0.04112954800359353</v>
+      </c>
+      <c r="F4">
+        <v>-0.0004634527961952328</v>
+      </c>
+      <c r="G4">
+        <v>0.1044255986999647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.005485902123343673</v>
+        <v>0.03469813586437288</v>
       </c>
       <c r="C6">
-        <v>-0.01373046063273413</v>
+        <v>-0.05129557793644099</v>
       </c>
       <c r="D6">
-        <v>0.06198720493120483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01783022605508162</v>
+      </c>
+      <c r="E6">
+        <v>0.04526482184425116</v>
+      </c>
+      <c r="F6">
+        <v>0.001857753048850439</v>
+      </c>
+      <c r="G6">
+        <v>0.08939975562623349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.003882557324974026</v>
+        <v>0.02101899774143077</v>
       </c>
       <c r="C7">
-        <v>-0.01374689810711142</v>
+        <v>-0.04014819029849821</v>
       </c>
       <c r="D7">
-        <v>0.03653613459514471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01401764111385624</v>
+      </c>
+      <c r="E7">
+        <v>0.01039883866863993</v>
+      </c>
+      <c r="F7">
+        <v>0.0007066280493665439</v>
+      </c>
+      <c r="G7">
+        <v>0.1224840080134718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003970848167016216</v>
+        <v>0.003455003553343408</v>
       </c>
       <c r="C8">
-        <v>-0.002263696310252691</v>
+        <v>-0.02385176054684611</v>
       </c>
       <c r="D8">
-        <v>-0.009640786019588168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004027374630878834</v>
+      </c>
+      <c r="E8">
+        <v>0.03266286733998244</v>
+      </c>
+      <c r="F8">
+        <v>0.0007921733417703679</v>
+      </c>
+      <c r="G8">
+        <v>0.07113194950869312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.008479069964898087</v>
+        <v>0.03281806595759364</v>
       </c>
       <c r="C9">
-        <v>-0.01098025823649569</v>
+        <v>-0.04867203853319361</v>
       </c>
       <c r="D9">
-        <v>0.04840262418120165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01668949268705538</v>
+      </c>
+      <c r="E9">
+        <v>0.02779554167334316</v>
+      </c>
+      <c r="F9">
+        <v>-0.0010733512126888</v>
+      </c>
+      <c r="G9">
+        <v>0.1065414349290212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1428870224985201</v>
+        <v>0.09938326823839312</v>
       </c>
       <c r="C10">
-        <v>0.07012138563496399</v>
+        <v>0.1819121577984878</v>
       </c>
       <c r="D10">
-        <v>-0.1387978300511274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01559825915723258</v>
+      </c>
+      <c r="E10">
+        <v>0.01908706685873992</v>
+      </c>
+      <c r="F10">
+        <v>0.02359381125413108</v>
+      </c>
+      <c r="G10">
+        <v>0.05388863214884191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00416580405968005</v>
+        <v>0.03489383373528715</v>
       </c>
       <c r="C11">
-        <v>0.001342364691946983</v>
+        <v>-0.05194944246899777</v>
       </c>
       <c r="D11">
-        <v>0.0456204108983734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002715702667098473</v>
+      </c>
+      <c r="E11">
+        <v>0.02303832278624445</v>
+      </c>
+      <c r="F11">
+        <v>-0.01660222697196749</v>
+      </c>
+      <c r="G11">
+        <v>0.08993408347695495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00750336452785428</v>
+        <v>0.03734432742263759</v>
       </c>
       <c r="C12">
-        <v>-0.002639715212038435</v>
+        <v>-0.04704336100550707</v>
       </c>
       <c r="D12">
-        <v>0.04057562445936121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006605477924112004</v>
+      </c>
+      <c r="E12">
+        <v>0.01011916306046965</v>
+      </c>
+      <c r="F12">
+        <v>-0.0004370082910698846</v>
+      </c>
+      <c r="G12">
+        <v>0.08237912415775051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009829549788447722</v>
+        <v>0.01324349929449606</v>
       </c>
       <c r="C13">
-        <v>-0.01895438192238073</v>
+        <v>-0.04197783148672767</v>
       </c>
       <c r="D13">
-        <v>0.02511955386367464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02751133953149674</v>
+      </c>
+      <c r="E13">
+        <v>0.0443473060171929</v>
+      </c>
+      <c r="F13">
+        <v>0.007463324107241875</v>
+      </c>
+      <c r="G13">
+        <v>0.1447086876128425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.002931145152121873</v>
+        <v>0.01036136603366695</v>
       </c>
       <c r="C14">
-        <v>-0.00909470885213207</v>
+        <v>-0.02747079921977966</v>
       </c>
       <c r="D14">
-        <v>0.01608514416604156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01029444397198579</v>
+      </c>
+      <c r="E14">
+        <v>0.008911266872599476</v>
+      </c>
+      <c r="F14">
+        <v>0.009034598031794745</v>
+      </c>
+      <c r="G14">
+        <v>0.1124441000201764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00574000758875884</v>
+        <v>0.033786799696616</v>
       </c>
       <c r="C16">
-        <v>0.001932073399269751</v>
+        <v>-0.04552341052369113</v>
       </c>
       <c r="D16">
-        <v>0.03498191678716039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002257479022437996</v>
+      </c>
+      <c r="E16">
+        <v>0.01877100158705748</v>
+      </c>
+      <c r="F16">
+        <v>0.002398490716563785</v>
+      </c>
+      <c r="G16">
+        <v>0.09272890563884068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.008314261854468555</v>
+        <v>0.02096533806791501</v>
       </c>
       <c r="C19">
-        <v>-0.01035050541034892</v>
+        <v>-0.04908395776530943</v>
       </c>
       <c r="D19">
-        <v>0.03505024306749918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02005974498224035</v>
+      </c>
+      <c r="E19">
+        <v>0.08762154702617943</v>
+      </c>
+      <c r="F19">
+        <v>0.001824840712401919</v>
+      </c>
+      <c r="G19">
+        <v>0.1457577733679846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0005469489711286146</v>
+        <v>0.01525474868811533</v>
       </c>
       <c r="C20">
-        <v>-0.01189541132567262</v>
+        <v>-0.04114686469996563</v>
       </c>
       <c r="D20">
-        <v>0.02548036342292187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01487786927830851</v>
+      </c>
+      <c r="E20">
+        <v>0.04067441039014349</v>
+      </c>
+      <c r="F20">
+        <v>0.02071284930703646</v>
+      </c>
+      <c r="G20">
+        <v>0.1165160474329832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.004126065748317998</v>
+        <v>0.01025807860825581</v>
       </c>
       <c r="C21">
-        <v>-0.01617485498283176</v>
+        <v>-0.03787225361606519</v>
       </c>
       <c r="D21">
-        <v>0.002610404882737556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0197476931133485</v>
+      </c>
+      <c r="E21">
+        <v>0.05000805705745742</v>
+      </c>
+      <c r="F21">
+        <v>0.01237923451509845</v>
+      </c>
+      <c r="G21">
+        <v>0.1440548268460974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001103786709784078</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006727386265347668</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002279756982156159</v>
+      </c>
+      <c r="E22">
+        <v>0.01830820623505288</v>
+      </c>
+      <c r="F22">
+        <v>-0.007508631180967421</v>
+      </c>
+      <c r="G22">
+        <v>0.005294520707644426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001108931975743831</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006728465237467094</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002277315978523941</v>
+      </c>
+      <c r="E23">
+        <v>0.0182859358212909</v>
+      </c>
+      <c r="F23">
+        <v>-0.007499118722127456</v>
+      </c>
+      <c r="G23">
+        <v>0.005195492078898066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0005931714706364894</v>
+        <v>0.02902990144953813</v>
       </c>
       <c r="C24">
-        <v>-0.005827938310223647</v>
+        <v>-0.04871018614502279</v>
       </c>
       <c r="D24">
-        <v>0.03705656903318862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007333548188599233</v>
+      </c>
+      <c r="E24">
+        <v>0.01685393205256217</v>
+      </c>
+      <c r="F24">
+        <v>-0.007337796594734241</v>
+      </c>
+      <c r="G24">
+        <v>0.09197044563471507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01427266157650804</v>
+        <v>0.04231348761516113</v>
       </c>
       <c r="C25">
-        <v>-0.004862741504752841</v>
+        <v>-0.05669428560971287</v>
       </c>
       <c r="D25">
-        <v>0.0551482801805236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01142536808366855</v>
+      </c>
+      <c r="E25">
+        <v>0.007192714777571699</v>
+      </c>
+      <c r="F25">
+        <v>-0.005287766051471628</v>
+      </c>
+      <c r="G25">
+        <v>0.09802223931099312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004906746785236</v>
+        <v>0.01464543930919106</v>
       </c>
       <c r="C26">
-        <v>-0.02189844176422619</v>
+        <v>-0.01133197213345979</v>
       </c>
       <c r="D26">
-        <v>-0.003619690454215506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02417368268053455</v>
+      </c>
+      <c r="E26">
+        <v>0.008929164119426496</v>
+      </c>
+      <c r="F26">
+        <v>0.006571982754939088</v>
+      </c>
+      <c r="G26">
+        <v>0.08608759225739245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1928589174728509</v>
+        <v>0.1289697236896539</v>
       </c>
       <c r="C28">
-        <v>0.07817731155596233</v>
+        <v>0.2421654320749234</v>
       </c>
       <c r="D28">
-        <v>-0.1692903698155053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.00672340491867114</v>
+      </c>
+      <c r="E28">
+        <v>0.005172755116570638</v>
+      </c>
+      <c r="F28">
+        <v>0.02082432520215913</v>
+      </c>
+      <c r="G28">
+        <v>0.05141038986239249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.004439967064234938</v>
+        <v>0.009645513536518864</v>
       </c>
       <c r="C29">
-        <v>-0.005283606554925522</v>
+        <v>-0.02309148834442168</v>
       </c>
       <c r="D29">
-        <v>0.01743929466734595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009326009838850693</v>
+      </c>
+      <c r="E29">
+        <v>0.00286063071256153</v>
+      </c>
+      <c r="F29">
+        <v>0.01357870385490427</v>
+      </c>
+      <c r="G29">
+        <v>0.1023104200921671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01282169835359447</v>
+        <v>0.03915663228685042</v>
       </c>
       <c r="C30">
-        <v>-0.0199342925844083</v>
+        <v>-0.0679469252969125</v>
       </c>
       <c r="D30">
-        <v>0.09445456276813365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02989672269130841</v>
+      </c>
+      <c r="E30">
+        <v>0.07302829277159346</v>
+      </c>
+      <c r="F30">
+        <v>-0.02913087329385993</v>
+      </c>
+      <c r="G30">
+        <v>0.1351679591411433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02118141832006597</v>
+        <v>0.05350424775921155</v>
       </c>
       <c r="C31">
-        <v>0.00468917428632841</v>
+        <v>-0.04004048056993188</v>
       </c>
       <c r="D31">
-        <v>0.02316130515320885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003996115772784446</v>
+      </c>
+      <c r="E31">
+        <v>-0.002619311578719408</v>
+      </c>
+      <c r="F31">
+        <v>0.03703769836174005</v>
+      </c>
+      <c r="G31">
+        <v>0.09784900535004935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005334518426174023</v>
+        <v>0.002155998179740927</v>
       </c>
       <c r="C32">
-        <v>0.0110736136807763</v>
+        <v>-0.0221756811130393</v>
       </c>
       <c r="D32">
-        <v>0.009779205912833641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002307255722139667</v>
+      </c>
+      <c r="E32">
+        <v>0.0442610594659417</v>
+      </c>
+      <c r="F32">
+        <v>-0.032236171423257</v>
+      </c>
+      <c r="G32">
+        <v>0.08348168626119548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.002417968295060308</v>
+        <v>0.0273957253178683</v>
       </c>
       <c r="C33">
-        <v>-0.0110091433297631</v>
+        <v>-0.05071107376013417</v>
       </c>
       <c r="D33">
-        <v>0.03482910289428943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01685725498964863</v>
+      </c>
+      <c r="E33">
+        <v>0.05283205827666849</v>
+      </c>
+      <c r="F33">
+        <v>-0.008320854155881087</v>
+      </c>
+      <c r="G33">
+        <v>0.1641957076878306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01749671015585046</v>
+        <v>0.04067388215123774</v>
       </c>
       <c r="C34">
-        <v>0.01447807670498226</v>
+        <v>-0.0589413528487966</v>
       </c>
       <c r="D34">
-        <v>0.05576856175855983</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004124129918182205</v>
+      </c>
+      <c r="E34">
+        <v>0.01478363943595934</v>
+      </c>
+      <c r="F34">
+        <v>-0.0194845706875509</v>
+      </c>
+      <c r="G34">
+        <v>0.09347346233918241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.007347130047757691</v>
+        <v>0.01621960624946802</v>
       </c>
       <c r="C36">
-        <v>-0.008339223234681755</v>
+        <v>-0.01018695378780446</v>
       </c>
       <c r="D36">
-        <v>-0.002820407894826182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0128868408735492</v>
+      </c>
+      <c r="E36">
+        <v>0.01017279030136867</v>
+      </c>
+      <c r="F36">
+        <v>0.008527189078159615</v>
+      </c>
+      <c r="G36">
+        <v>0.09415849751825879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01855484714767622</v>
+        <v>0.03243574525905284</v>
       </c>
       <c r="C38">
-        <v>0.01683580732570153</v>
+        <v>-0.02879457739210681</v>
       </c>
       <c r="D38">
-        <v>0.02654819536590911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007694816051169117</v>
+      </c>
+      <c r="E38">
+        <v>0.004931237376544171</v>
+      </c>
+      <c r="F38">
+        <v>0.01864953394718152</v>
+      </c>
+      <c r="G38">
+        <v>0.08705610484393073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01293578682106036</v>
+        <v>0.03645735279828891</v>
       </c>
       <c r="C39">
-        <v>-0.0150617740136152</v>
+        <v>-0.07881456707919561</v>
       </c>
       <c r="D39">
-        <v>0.08744583584657255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01238627310598215</v>
+      </c>
+      <c r="E39">
+        <v>0.03363691673793268</v>
+      </c>
+      <c r="F39">
+        <v>-0.01657516103898754</v>
+      </c>
+      <c r="G39">
+        <v>0.09672663565783089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01299859669059978</v>
+        <v>0.01401394915914803</v>
       </c>
       <c r="C40">
-        <v>-0.005161832286530505</v>
+        <v>-0.03863469971837942</v>
       </c>
       <c r="D40">
-        <v>0.02160033874785354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01513844018095459</v>
+      </c>
+      <c r="E40">
+        <v>0.03511371752486903</v>
+      </c>
+      <c r="F40">
+        <v>0.01298340245796862</v>
+      </c>
+      <c r="G40">
+        <v>0.1262035868333597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01189088396946997</v>
+        <v>0.02076435550570068</v>
       </c>
       <c r="C41">
-        <v>0.001697313780516177</v>
+        <v>-0.003186014069993779</v>
       </c>
       <c r="D41">
-        <v>-0.01115265288393304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004909968168574726</v>
+      </c>
+      <c r="E41">
+        <v>0.009279392831181838</v>
+      </c>
+      <c r="F41">
+        <v>0.01536544298683239</v>
+      </c>
+      <c r="G41">
+        <v>0.09008403597183234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02378856031134796</v>
+        <v>0.005973550495556634</v>
       </c>
       <c r="C42">
-        <v>-0.08822700200482002</v>
+        <v>-0.02425964477858247</v>
       </c>
       <c r="D42">
-        <v>0.07172746667045832</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08652694515377606</v>
+      </c>
+      <c r="E42">
+        <v>-0.001743064093353354</v>
+      </c>
+      <c r="F42">
+        <v>0.03256365132002178</v>
+      </c>
+      <c r="G42">
+        <v>-0.02697897134128445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01317227689755017</v>
+        <v>0.03596659040740827</v>
       </c>
       <c r="C43">
-        <v>0.001564912538249022</v>
+        <v>-0.01889093440663571</v>
       </c>
       <c r="D43">
-        <v>-0.007557952755097986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006090034262042292</v>
+      </c>
+      <c r="E43">
+        <v>0.02276731897873543</v>
+      </c>
+      <c r="F43">
+        <v>0.01078268789128595</v>
+      </c>
+      <c r="G43">
+        <v>0.1191547769751294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003612326340429615</v>
+        <v>0.01347827250575201</v>
       </c>
       <c r="C44">
-        <v>-0.004651547048166909</v>
+        <v>-0.05807202767626285</v>
       </c>
       <c r="D44">
-        <v>0.04802392894151912</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007278013605318847</v>
+      </c>
+      <c r="E44">
+        <v>0.02948609608998277</v>
+      </c>
+      <c r="F44">
+        <v>0.01477839432151796</v>
+      </c>
+      <c r="G44">
+        <v>0.1142259407755074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>6.737248889909608e-05</v>
+        <v>0.0090272695655746</v>
       </c>
       <c r="C46">
-        <v>-0.01096144816554667</v>
+        <v>-0.01540613942819461</v>
       </c>
       <c r="D46">
-        <v>-0.007221928881675086</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01269900069035832</v>
+      </c>
+      <c r="E46">
+        <v>-0.001525642516160728</v>
+      </c>
+      <c r="F46">
+        <v>0.01734792413216633</v>
+      </c>
+      <c r="G46">
+        <v>0.1094754830773817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02910435054713325</v>
+        <v>0.07942974945124685</v>
       </c>
       <c r="C47">
-        <v>0.01599716279480536</v>
+        <v>-0.07125277128307941</v>
       </c>
       <c r="D47">
-        <v>0.07028136963592553</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005035671965576055</v>
+      </c>
+      <c r="E47">
+        <v>-0.01154020428447293</v>
+      </c>
+      <c r="F47">
+        <v>0.0515506752236273</v>
+      </c>
+      <c r="G47">
+        <v>0.08507788333723429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00502132040839307</v>
+        <v>0.01969568753347051</v>
       </c>
       <c r="C48">
-        <v>0.001050584395485466</v>
+        <v>-0.01271309642558543</v>
       </c>
       <c r="D48">
-        <v>0.008398039124276781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002315804530296838</v>
+      </c>
+      <c r="E48">
+        <v>0.004397868983998125</v>
+      </c>
+      <c r="F48">
+        <v>0.02021227071489949</v>
+      </c>
+      <c r="G48">
+        <v>0.1030333034538614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04020423844444241</v>
+        <v>0.07464285282810246</v>
       </c>
       <c r="C50">
-        <v>0.01889384809979221</v>
+        <v>-0.07333191038371031</v>
       </c>
       <c r="D50">
-        <v>0.05903323155375405</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002015282411001454</v>
+      </c>
+      <c r="E50">
+        <v>-0.01073539757834832</v>
+      </c>
+      <c r="F50">
+        <v>0.05139988271756228</v>
+      </c>
+      <c r="G50">
+        <v>0.09642095404992439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0008699922226809383</v>
+        <v>0.01272768388550493</v>
       </c>
       <c r="C51">
-        <v>-0.006147726444653135</v>
+        <v>-0.03791869662780994</v>
       </c>
       <c r="D51">
-        <v>0.01853279333958276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0111866217296912</v>
+      </c>
+      <c r="E51">
+        <v>0.03150490185082123</v>
+      </c>
+      <c r="F51">
+        <v>-0.01371590692582179</v>
+      </c>
+      <c r="G51">
+        <v>0.1238466262027662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04513092989823464</v>
+        <v>0.08110871021757532</v>
       </c>
       <c r="C53">
-        <v>0.02138233537740086</v>
+        <v>-0.08460635653973642</v>
       </c>
       <c r="D53">
-        <v>0.1023843301492866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00367328204871349</v>
+      </c>
+      <c r="E53">
+        <v>-0.0337517665312935</v>
+      </c>
+      <c r="F53">
+        <v>0.05600248782970369</v>
+      </c>
+      <c r="G53">
+        <v>0.08724841481980446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01514771350731387</v>
+        <v>0.03296837849130507</v>
       </c>
       <c r="C54">
-        <v>0.009974508365600774</v>
+        <v>-0.01862774349692997</v>
       </c>
       <c r="D54">
-        <v>-0.004406971346934433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001026407825430761</v>
+      </c>
+      <c r="E54">
+        <v>0.01847183289414504</v>
+      </c>
+      <c r="F54">
+        <v>0.008976051412515049</v>
+      </c>
+      <c r="G54">
+        <v>0.1113348057620477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.03056690785808638</v>
+        <v>0.07378291183636691</v>
       </c>
       <c r="C55">
-        <v>0.01600725813313269</v>
+        <v>-0.06757720181065995</v>
       </c>
       <c r="D55">
-        <v>0.08391748990163216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005339998658775219</v>
+      </c>
+      <c r="E55">
+        <v>-0.03214526651898953</v>
+      </c>
+      <c r="F55">
+        <v>0.05420032177569957</v>
+      </c>
+      <c r="G55">
+        <v>0.06568233263222757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.07293088450511001</v>
+        <v>0.1358294396166924</v>
       </c>
       <c r="C56">
-        <v>0.03955021526472718</v>
+        <v>-0.1067787662763664</v>
       </c>
       <c r="D56">
-        <v>0.1496337736863658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01296084235740674</v>
+      </c>
+      <c r="E56">
+        <v>-0.03997890783511873</v>
+      </c>
+      <c r="F56">
+        <v>0.06956293977548586</v>
+      </c>
+      <c r="G56">
+        <v>0.04079314765156065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01376921142901889</v>
+        <v>0.004282936717080046</v>
       </c>
       <c r="C57">
-        <v>-0.01795567886341725</v>
+        <v>-0.005914679305896803</v>
       </c>
       <c r="D57">
-        <v>0.02051905492612146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02276971969809407</v>
+      </c>
+      <c r="E57">
+        <v>0.02506749431223206</v>
+      </c>
+      <c r="F57">
+        <v>-0.001854545670375103</v>
+      </c>
+      <c r="G57">
+        <v>0.01970370843383932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.004911068036881894</v>
+        <v>0.04591268103434819</v>
       </c>
       <c r="C58">
-        <v>0.001457944833554049</v>
+        <v>-0.04329047232253358</v>
       </c>
       <c r="D58">
-        <v>0.1088493746602079</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02431419581430189</v>
+      </c>
+      <c r="E58">
+        <v>0.832443124162172</v>
+      </c>
+      <c r="F58">
+        <v>0.4519809198170557</v>
+      </c>
+      <c r="G58">
+        <v>-0.2444208319096805</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2224622925850278</v>
+        <v>0.1601007492788577</v>
       </c>
       <c r="C59">
-        <v>0.09723826950815048</v>
+        <v>0.2068716111749739</v>
       </c>
       <c r="D59">
-        <v>-0.1454876862907233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01120828502075675</v>
+      </c>
+      <c r="E59">
+        <v>0.02562032835272549</v>
+      </c>
+      <c r="F59">
+        <v>0.00397801543311818</v>
+      </c>
+      <c r="G59">
+        <v>0.03717266635130172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2346695566605423</v>
+        <v>0.2870606161944063</v>
       </c>
       <c r="C60">
-        <v>0.08639222659761962</v>
+        <v>-0.115196320830695</v>
       </c>
       <c r="D60">
-        <v>0.1869571263085981</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01437706138260923</v>
+      </c>
+      <c r="E60">
+        <v>0.08008070948219764</v>
+      </c>
+      <c r="F60">
+        <v>-0.3303139270830892</v>
+      </c>
+      <c r="G60">
+        <v>-0.1568970278625569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0005711760208537975</v>
+        <v>0.03911485319037721</v>
       </c>
       <c r="C61">
-        <v>-0.003285774775191978</v>
+        <v>-0.06442591923272237</v>
       </c>
       <c r="D61">
-        <v>0.07020886233787148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.00614349135953749</v>
+      </c>
+      <c r="E61">
+        <v>0.03041964476261178</v>
+      </c>
+      <c r="F61">
+        <v>-0.01137322667436661</v>
+      </c>
+      <c r="G61">
+        <v>0.1023432080071126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.003519346309600324</v>
+        <v>0.01450183528235117</v>
       </c>
       <c r="C63">
-        <v>-0.006219930630153675</v>
+        <v>-0.03023644247346628</v>
       </c>
       <c r="D63">
-        <v>0.02392241680538186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008791519908529484</v>
+      </c>
+      <c r="E63">
+        <v>0.005082240968427695</v>
+      </c>
+      <c r="F63">
+        <v>0.01491990427255811</v>
+      </c>
+      <c r="G63">
+        <v>0.09496972137459808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02793125008824688</v>
+        <v>0.0491015202175759</v>
       </c>
       <c r="C64">
-        <v>0.007013203834808115</v>
+        <v>-0.04627621474045831</v>
       </c>
       <c r="D64">
-        <v>0.04808021313208408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006371613196863605</v>
+      </c>
+      <c r="E64">
+        <v>0.005311639095751082</v>
+      </c>
+      <c r="F64">
+        <v>-0.00474340318240618</v>
+      </c>
+      <c r="G64">
+        <v>0.101492812862219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03989606626608688</v>
+        <v>0.07386921372667067</v>
       </c>
       <c r="C65">
-        <v>5.901960565819198e-05</v>
+        <v>-0.06027141010270527</v>
       </c>
       <c r="D65">
-        <v>0.1089123726484641</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01742366799413051</v>
+      </c>
+      <c r="E65">
+        <v>0.05004112260463542</v>
+      </c>
+      <c r="F65">
+        <v>-0.01567592899453605</v>
+      </c>
+      <c r="G65">
+        <v>0.04522127378800068</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01094337785023565</v>
+        <v>0.04813775104932058</v>
       </c>
       <c r="C66">
-        <v>-0.01331271312342624</v>
+        <v>-0.1061816076682672</v>
       </c>
       <c r="D66">
-        <v>0.1287404031049394</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01260759876940541</v>
+      </c>
+      <c r="E66">
+        <v>0.05171808885562112</v>
+      </c>
+      <c r="F66">
+        <v>-0.02547892765145642</v>
+      </c>
+      <c r="G66">
+        <v>0.1055692500572605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04136268111699502</v>
+        <v>0.05559904033922389</v>
       </c>
       <c r="C67">
-        <v>0.02327618544678673</v>
+        <v>-0.03394259010017037</v>
       </c>
       <c r="D67">
-        <v>0.04609754048666976</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006254701580230626</v>
+      </c>
+      <c r="E67">
+        <v>-0.006092974198104068</v>
+      </c>
+      <c r="F67">
+        <v>0.015272443371287</v>
+      </c>
+      <c r="G67">
+        <v>0.0734260298153937</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2226720859619483</v>
+        <v>0.1596836411567628</v>
       </c>
       <c r="C68">
-        <v>0.07600459542121647</v>
+        <v>0.2711670474164116</v>
       </c>
       <c r="D68">
-        <v>-0.2058004585636604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004645810915589098</v>
+      </c>
+      <c r="E68">
+        <v>0.003618243739608709</v>
+      </c>
+      <c r="F68">
+        <v>0.0433611415751816</v>
+      </c>
+      <c r="G68">
+        <v>0.02143422144244816</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03567555388560949</v>
+        <v>0.08203811975147522</v>
       </c>
       <c r="C69">
-        <v>0.02290008208554748</v>
+        <v>-0.07445612426445762</v>
       </c>
       <c r="D69">
-        <v>0.07007847595796395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008941494083430115</v>
+      </c>
+      <c r="E69">
+        <v>-0.02513879401593142</v>
+      </c>
+      <c r="F69">
+        <v>0.03095802601353805</v>
+      </c>
+      <c r="G69">
+        <v>0.09840204610439254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1939728016831507</v>
+        <v>0.1448960500664147</v>
       </c>
       <c r="C71">
-        <v>0.0751402105408564</v>
+        <v>0.2288664600765665</v>
       </c>
       <c r="D71">
-        <v>-0.1470344259713302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003099078184586186</v>
+      </c>
+      <c r="E71">
+        <v>0.03238783900046188</v>
+      </c>
+      <c r="F71">
+        <v>0.02754090648966534</v>
+      </c>
+      <c r="G71">
+        <v>0.06563682222691462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.03017239659567828</v>
+        <v>0.0871317530258094</v>
       </c>
       <c r="C72">
-        <v>0.02157008066612653</v>
+        <v>-0.06996196612648189</v>
       </c>
       <c r="D72">
-        <v>0.09032024720045091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008264778101216355</v>
+      </c>
+      <c r="E72">
+        <v>-0.005108462161176325</v>
+      </c>
+      <c r="F72">
+        <v>-0.03307208204397147</v>
+      </c>
+      <c r="G72">
+        <v>0.09499984620795229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3118627754505254</v>
+        <v>0.3712741337426878</v>
       </c>
       <c r="C73">
-        <v>0.1120048980852105</v>
+        <v>-0.1228465183372486</v>
       </c>
       <c r="D73">
-        <v>0.2836222058504618</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02468927864713795</v>
+      </c>
+      <c r="E73">
+        <v>0.1919496813757163</v>
+      </c>
+      <c r="F73">
+        <v>-0.5566095945156182</v>
+      </c>
+      <c r="G73">
+        <v>-0.3074151725473692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.06143178465122458</v>
+        <v>0.1042173262002393</v>
       </c>
       <c r="C74">
-        <v>0.03481573045929569</v>
+        <v>-0.1099364445491828</v>
       </c>
       <c r="D74">
-        <v>0.1585359084291322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009626006933510721</v>
+      </c>
+      <c r="E74">
+        <v>-0.01665940656197767</v>
+      </c>
+      <c r="F74">
+        <v>0.06217595632568241</v>
+      </c>
+      <c r="G74">
+        <v>0.07088417114768987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1568796254209211</v>
+        <v>0.2465427260930065</v>
       </c>
       <c r="C75">
-        <v>0.08342654588026326</v>
+        <v>-0.1534057351806788</v>
       </c>
       <c r="D75">
-        <v>0.2754325718007798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03142558089524974</v>
+      </c>
+      <c r="E75">
+        <v>-0.09367136322481921</v>
+      </c>
+      <c r="F75">
+        <v>0.1551943616377548</v>
+      </c>
+      <c r="G75">
+        <v>-0.02272840468148214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.06477214500802971</v>
+        <v>0.1151706635756209</v>
       </c>
       <c r="C76">
-        <v>0.04191074398701061</v>
+        <v>-0.1114277306934708</v>
       </c>
       <c r="D76">
-        <v>0.1756652475785229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01773936895462563</v>
+      </c>
+      <c r="E76">
+        <v>-0.0419291719678718</v>
+      </c>
+      <c r="F76">
+        <v>0.08949942900319821</v>
+      </c>
+      <c r="G76">
+        <v>0.05168335714495792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02592189672808948</v>
+        <v>0.07138845461297876</v>
       </c>
       <c r="C77">
-        <v>0.002435418088615216</v>
+        <v>-0.05724241502706238</v>
       </c>
       <c r="D77">
-        <v>0.07561627892741121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01015613120751195</v>
+      </c>
+      <c r="E77">
+        <v>0.05250515062119546</v>
+      </c>
+      <c r="F77">
+        <v>0.002717474104594989</v>
+      </c>
+      <c r="G77">
+        <v>0.0734687976263133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.01790061863421654</v>
+        <v>0.04163284760503847</v>
       </c>
       <c r="C78">
-        <v>0.004290086212193391</v>
+        <v>-0.05193726905337434</v>
       </c>
       <c r="D78">
-        <v>0.06261218633720711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006792515265208481</v>
+      </c>
+      <c r="E78">
+        <v>0.03883870727463311</v>
+      </c>
+      <c r="F78">
+        <v>-0.03119817119814323</v>
+      </c>
+      <c r="G78">
+        <v>0.1042767615634683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0008637483643199365</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001757339114591923</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003509975638012981</v>
+      </c>
+      <c r="E79">
+        <v>0.004177382824984629</v>
+      </c>
+      <c r="F79">
+        <v>-0.00103934731151407</v>
+      </c>
+      <c r="G79">
+        <v>0.003011291805234191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03415838901691891</v>
+        <v>0.04175476774506961</v>
       </c>
       <c r="C80">
-        <v>0.002682351133288039</v>
+        <v>-0.05296315098408336</v>
       </c>
       <c r="D80">
-        <v>0.07512578059159832</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01396583236845982</v>
+      </c>
+      <c r="E80">
+        <v>0.03106749037216501</v>
+      </c>
+      <c r="F80">
+        <v>-0.001340316134658236</v>
+      </c>
+      <c r="G80">
+        <v>0.05321440700874173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.07707909366245576</v>
+        <v>0.1380552440990127</v>
       </c>
       <c r="C81">
-        <v>0.04127796166725884</v>
+        <v>-0.0975116344104877</v>
       </c>
       <c r="D81">
-        <v>0.1496497722799152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01544169949845474</v>
+      </c>
+      <c r="E81">
+        <v>-0.05736093436993235</v>
+      </c>
+      <c r="F81">
+        <v>0.1170290627271907</v>
+      </c>
+      <c r="G81">
+        <v>0.02199532283588342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.007020602983067258</v>
+        <v>0.1471587464179367</v>
       </c>
       <c r="C82">
-        <v>0.003154716542513958</v>
+        <v>-0.08466194712487861</v>
       </c>
       <c r="D82">
-        <v>0.009285208230921218</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01257193320747206</v>
+      </c>
+      <c r="E82">
+        <v>-0.1313411220913586</v>
+      </c>
+      <c r="F82">
+        <v>0.04616974990427387</v>
+      </c>
+      <c r="G82">
+        <v>0.06124095389709584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0142425144629826</v>
+        <v>0.03423678527342777</v>
       </c>
       <c r="C83">
-        <v>0.002035097785081736</v>
+        <v>-0.03151911796153715</v>
       </c>
       <c r="D83">
-        <v>0.01877956351069571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006487480527292663</v>
+      </c>
+      <c r="E83">
+        <v>0.03399378098236056</v>
+      </c>
+      <c r="F83">
+        <v>-0.02900953742946112</v>
+      </c>
+      <c r="G83">
+        <v>0.05989793241554907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1536554307742792</v>
+        <v>0.2079171844886117</v>
       </c>
       <c r="C85">
-        <v>0.0687788155810163</v>
+        <v>-0.1481638672202332</v>
       </c>
       <c r="D85">
-        <v>0.2727827657202925</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01719766099808321</v>
+      </c>
+      <c r="E85">
+        <v>-0.1160775646049274</v>
+      </c>
+      <c r="F85">
+        <v>0.08959641481800132</v>
+      </c>
+      <c r="G85">
+        <v>-0.06116946264310635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009066653922646968</v>
+        <v>0.01329069136248707</v>
       </c>
       <c r="C86">
-        <v>-0.00155945022292165</v>
+        <v>-0.02700522500719918</v>
       </c>
       <c r="D86">
-        <v>0.02746989233255718</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01142408608597834</v>
+      </c>
+      <c r="E86">
+        <v>0.05311883352187353</v>
+      </c>
+      <c r="F86">
+        <v>-0.00870579251174312</v>
+      </c>
+      <c r="G86">
+        <v>0.1792028247825426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.009417606830626108</v>
+        <v>0.02141886098910403</v>
       </c>
       <c r="C87">
-        <v>-0.01295755187744238</v>
+        <v>-0.01742365030655224</v>
       </c>
       <c r="D87">
-        <v>0.02249873260656044</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01262633458187475</v>
+      </c>
+      <c r="E87">
+        <v>0.1001622075352555</v>
+      </c>
+      <c r="F87">
+        <v>0.01402591761998708</v>
+      </c>
+      <c r="G87">
+        <v>0.1250360536802298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04250979046821559</v>
+        <v>0.09212345839313398</v>
       </c>
       <c r="C88">
-        <v>-0.006389539473712186</v>
+        <v>-0.07139355626204245</v>
       </c>
       <c r="D88">
-        <v>0.03548319821912139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02206823806465739</v>
+      </c>
+      <c r="E88">
+        <v>-0.007184219660340651</v>
+      </c>
+      <c r="F88">
+        <v>0.02024686518477382</v>
+      </c>
+      <c r="G88">
+        <v>0.09898533446387028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3324990057942128</v>
+        <v>0.23470507616038</v>
       </c>
       <c r="C89">
-        <v>0.1230887439991978</v>
+        <v>0.3642528521095714</v>
       </c>
       <c r="D89">
-        <v>-0.2576907239690114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>3.314806753524709e-06</v>
+      </c>
+      <c r="E89">
+        <v>-0.02482563995464648</v>
+      </c>
+      <c r="F89">
+        <v>0.01828097650871931</v>
+      </c>
+      <c r="G89">
+        <v>0.07747236719260678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2821808501385918</v>
+        <v>0.2124056698080269</v>
       </c>
       <c r="C90">
-        <v>0.1081278576055759</v>
+        <v>0.3155944032094215</v>
       </c>
       <c r="D90">
-        <v>-0.2248234292566975</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004691471936257924</v>
+      </c>
+      <c r="E90">
+        <v>-0.003926434580239295</v>
+      </c>
+      <c r="F90">
+        <v>0.04805937460923306</v>
+      </c>
+      <c r="G90">
+        <v>0.04961155943803321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1194556023891386</v>
+        <v>0.1848438228439085</v>
       </c>
       <c r="C91">
-        <v>0.06656851019218984</v>
+        <v>-0.1379975468023841</v>
       </c>
       <c r="D91">
-        <v>0.1853421052241945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02293391005779908</v>
+      </c>
+      <c r="E91">
+        <v>-0.08730916769616082</v>
+      </c>
+      <c r="F91">
+        <v>0.1198110554545034</v>
+      </c>
+      <c r="G91">
+        <v>0.02495993496131344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2523403299032139</v>
+        <v>0.19964314477566</v>
       </c>
       <c r="C92">
-        <v>0.1322301533579852</v>
+        <v>0.2576962736273528</v>
       </c>
       <c r="D92">
-        <v>-0.1437252116688244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03912154873270868</v>
+      </c>
+      <c r="E92">
+        <v>0.02014905749788217</v>
+      </c>
+      <c r="F92">
+        <v>0.05892574642688814</v>
+      </c>
+      <c r="G92">
+        <v>0.0917595569588216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3049557413148574</v>
+        <v>0.2349375318819102</v>
       </c>
       <c r="C93">
-        <v>0.1237840504748226</v>
+        <v>0.3097008162117727</v>
       </c>
       <c r="D93">
-        <v>-0.1855556777060013</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01108423584487375</v>
+      </c>
+      <c r="E93">
+        <v>0.003646125573354884</v>
+      </c>
+      <c r="F93">
+        <v>0.04174626391121464</v>
+      </c>
+      <c r="G93">
+        <v>0.05904757440230127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1666055919424344</v>
+        <v>0.3194569711271568</v>
       </c>
       <c r="C94">
-        <v>0.0662123101338068</v>
+        <v>-0.1888648774565782</v>
       </c>
       <c r="D94">
-        <v>0.2792862099881599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0221294039906009</v>
+      </c>
+      <c r="E94">
+        <v>-0.3124754139115823</v>
+      </c>
+      <c r="F94">
+        <v>0.4270892238606636</v>
+      </c>
+      <c r="G94">
+        <v>-0.3913886539523666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.02347799302082214</v>
+        <v>0.09523248040136692</v>
       </c>
       <c r="C95">
-        <v>0.01995230388339311</v>
+        <v>-0.08127427015283048</v>
       </c>
       <c r="D95">
-        <v>0.10531660918052</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009882789807055259</v>
+      </c>
+      <c r="E95">
+        <v>0.09968988730637984</v>
+      </c>
+      <c r="F95">
+        <v>-0.164323420717102</v>
+      </c>
+      <c r="G95">
+        <v>0.02137573729903326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1536493657336296</v>
+        <v>0.1905734738021337</v>
       </c>
       <c r="C98">
-        <v>0.08033201278831822</v>
+        <v>-0.04776562968102414</v>
       </c>
       <c r="D98">
-        <v>0.1143187815378565</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01091793658897608</v>
+      </c>
+      <c r="E98">
+        <v>0.1217544519613796</v>
+      </c>
+      <c r="F98">
+        <v>-0.2202035391030933</v>
+      </c>
+      <c r="G98">
+        <v>-0.02317294057283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.004071653297098026</v>
+        <v>0.009487508580622406</v>
       </c>
       <c r="C101">
-        <v>-0.005280590857066766</v>
+        <v>-0.02296735317090725</v>
       </c>
       <c r="D101">
-        <v>0.01770958066905637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009151026443148559</v>
+      </c>
+      <c r="E101">
+        <v>0.002479508799282995</v>
+      </c>
+      <c r="F101">
+        <v>0.01447868811725582</v>
+      </c>
+      <c r="G101">
+        <v>0.101901538229827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0816440072417326</v>
+        <v>0.1170282119393502</v>
       </c>
       <c r="C102">
-        <v>0.02901451057542154</v>
+        <v>-0.08289379871691711</v>
       </c>
       <c r="D102">
-        <v>0.1299051630550106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000295782611797684</v>
+      </c>
+      <c r="E102">
+        <v>-0.04248451954265141</v>
+      </c>
+      <c r="F102">
+        <v>0.03227963891143974</v>
+      </c>
+      <c r="G102">
+        <v>0.01353457171263581</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.3798006161097423</v>
+        <v>0.02133877463974934</v>
       </c>
       <c r="C104">
-        <v>-0.9155237185834706</v>
+        <v>0.02988130999693881</v>
       </c>
       <c r="D104">
-        <v>-0.006648388500136626</v>
+        <v>0.9874925977967347</v>
+      </c>
+      <c r="E104">
+        <v>-0.0627137056126664</v>
+      </c>
+      <c r="F104">
+        <v>0.02878516840087259</v>
+      </c>
+      <c r="G104">
+        <v>-0.04088689198172196</v>
       </c>
     </row>
   </sheetData>
